--- a/ValueSet-wellbeing-domains-example-vs.xlsx
+++ b/ValueSet-wellbeing-domains-example-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-domains-example-vs.xlsx
+++ b/ValueSet-wellbeing-domains-example-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -162,7 +162,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/CodeSystem/va-whole-health</t>
+    <t>http://hl7.org/fhir/us/pco/CodeSystem/va-whole-health-example</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-wellbeing-domains-example-vs.xlsx
+++ b/ValueSet-wellbeing-domains-example-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-domains-example-vs.xlsx
+++ b/ValueSet-wellbeing-domains-example-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-domains-example-vs.xlsx
+++ b/ValueSet-wellbeing-domains-example-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-domains-example-vs.xlsx
+++ b/ValueSet-wellbeing-domains-example-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-domains-example-vs.xlsx
+++ b/ValueSet-wellbeing-domains-example-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-domains-example-vs.xlsx
+++ b/ValueSet-wellbeing-domains-example-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-domains-example-vs.xlsx
+++ b/ValueSet-wellbeing-domains-example-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-domains-example-vs.xlsx
+++ b/ValueSet-wellbeing-domains-example-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
